--- a/chapter-2/data/1-2-2020.xlsx
+++ b/chapter-2/data/1-2-2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\市場調査班\電力調査統計月報\発受電月報\2020年度\21年1月\04公表フォルダ\閲覧用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamuraayaka/100knock-process-visualization/chapter-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593F5CCE-A2A9-8642-808B-4A04143CF4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" activeTab="9"/>
+    <workbookView xWindow="640" yWindow="500" windowWidth="28400" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.4" sheetId="1" r:id="rId1"/>
@@ -865,12 +866,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="&quot;〔&quot;#,##0&quot;〕&quot;;&quot;〔&quot;#,##0&quot;〕&quot;"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1966,101 +1967,101 @@
     </xf>
   </cellXfs>
   <cellStyles count="95">
-    <cellStyle name="20% - アクセント 1 2" xfId="5"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="6"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="7"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="8"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="9"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="10"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="11"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="12"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="13"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="14"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="15"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="16"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="17"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="18"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="19"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="20"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="21"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="22"/>
-    <cellStyle name="アクセント 1 2" xfId="23"/>
-    <cellStyle name="アクセント 2 2" xfId="24"/>
-    <cellStyle name="アクセント 3 2" xfId="25"/>
-    <cellStyle name="アクセント 4 2" xfId="26"/>
-    <cellStyle name="アクセント 5 2" xfId="27"/>
-    <cellStyle name="アクセント 6 2" xfId="28"/>
-    <cellStyle name="タイトル 2" xfId="29"/>
-    <cellStyle name="チェック セル 2" xfId="30"/>
-    <cellStyle name="どちらでもない 2" xfId="31"/>
-    <cellStyle name="メモ 2" xfId="32"/>
-    <cellStyle name="リンク セル 2" xfId="33"/>
-    <cellStyle name="悪い 2" xfId="34"/>
-    <cellStyle name="計算 2" xfId="35"/>
-    <cellStyle name="警告文 2" xfId="36"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="タイトル 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="チェック セル 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="メモ 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="リンク セル 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="悪い 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="計算 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="警告文 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="桁区切り 2" xfId="50"/>
-    <cellStyle name="桁区切り 3" xfId="56"/>
-    <cellStyle name="見出し 1 2" xfId="37"/>
-    <cellStyle name="見出し 2 2" xfId="38"/>
-    <cellStyle name="見出し 3 2" xfId="39"/>
-    <cellStyle name="見出し 4 2" xfId="40"/>
-    <cellStyle name="集計 2" xfId="41"/>
-    <cellStyle name="出力 2" xfId="42"/>
-    <cellStyle name="説明文 2" xfId="43"/>
-    <cellStyle name="入力 2" xfId="44"/>
+    <cellStyle name="桁区切り 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="桁区切り 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="見出し 1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="見出し 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="見出し 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="見出し 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="集計 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="出力 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="説明文 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="入力 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="51"/>
-    <cellStyle name="標準 11" xfId="60"/>
-    <cellStyle name="標準 12" xfId="85"/>
-    <cellStyle name="標準 13" xfId="4"/>
-    <cellStyle name="標準 2" xfId="46"/>
-    <cellStyle name="標準 2 2" xfId="49"/>
-    <cellStyle name="標準 2 3" xfId="86"/>
-    <cellStyle name="標準 3" xfId="47"/>
-    <cellStyle name="標準 4" xfId="48"/>
-    <cellStyle name="標準 5" xfId="52"/>
-    <cellStyle name="標準 5 2" xfId="87"/>
-    <cellStyle name="標準 6" xfId="53"/>
-    <cellStyle name="標準 6 10" xfId="67"/>
-    <cellStyle name="標準 6 11" xfId="68"/>
-    <cellStyle name="標準 6 12" xfId="69"/>
-    <cellStyle name="標準 6 13" xfId="70"/>
-    <cellStyle name="標準 6 14" xfId="71"/>
-    <cellStyle name="標準 6 15" xfId="72"/>
-    <cellStyle name="標準 6 16" xfId="73"/>
-    <cellStyle name="標準 6 17" xfId="74"/>
-    <cellStyle name="標準 6 18" xfId="75"/>
-    <cellStyle name="標準 6 19" xfId="76"/>
-    <cellStyle name="標準 6 2" xfId="58"/>
-    <cellStyle name="標準 6 2 2" xfId="3"/>
-    <cellStyle name="標準 6 2 3" xfId="92"/>
-    <cellStyle name="標準 6 20" xfId="77"/>
-    <cellStyle name="標準 6 21" xfId="78"/>
-    <cellStyle name="標準 6 22" xfId="79"/>
-    <cellStyle name="標準 6 23" xfId="80"/>
-    <cellStyle name="標準 6 24" xfId="81"/>
-    <cellStyle name="標準 6 25" xfId="82"/>
-    <cellStyle name="標準 6 26" xfId="83"/>
-    <cellStyle name="標準 6 27" xfId="84"/>
-    <cellStyle name="標準 6 28" xfId="2"/>
-    <cellStyle name="標準 6 29" xfId="88"/>
-    <cellStyle name="標準 6 3" xfId="59"/>
-    <cellStyle name="標準 6 4" xfId="61"/>
-    <cellStyle name="標準 6 5" xfId="62"/>
-    <cellStyle name="標準 6 6" xfId="63"/>
-    <cellStyle name="標準 6 7" xfId="64"/>
-    <cellStyle name="標準 6 8" xfId="65"/>
-    <cellStyle name="標準 6 9" xfId="66"/>
-    <cellStyle name="標準 7" xfId="54"/>
-    <cellStyle name="標準 7 2" xfId="89"/>
-    <cellStyle name="標準 7 6" xfId="93"/>
-    <cellStyle name="標準 7 7" xfId="94"/>
-    <cellStyle name="標準 8" xfId="55"/>
-    <cellStyle name="標準 8 2" xfId="90"/>
-    <cellStyle name="標準 9" xfId="57"/>
-    <cellStyle name="標準 9 2" xfId="91"/>
-    <cellStyle name="良い 2" xfId="45"/>
+    <cellStyle name="標準 10" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準 11" xfId="60" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準 12" xfId="85" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="標準 13" xfId="4" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="標準 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="標準 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="標準 2 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="標準 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="標準 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="標準 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="標準 5 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="標準 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="標準 6 10" xfId="67" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="標準 6 11" xfId="68" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="標準 6 12" xfId="69" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="標準 6 13" xfId="70" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="標準 6 14" xfId="71" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="標準 6 15" xfId="72" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="標準 6 16" xfId="73" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="標準 6 17" xfId="74" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="標準 6 18" xfId="75" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="標準 6 19" xfId="76" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="標準 6 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="標準 6 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="標準 6 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="標準 6 20" xfId="77" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="標準 6 21" xfId="78" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="標準 6 22" xfId="79" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="標準 6 23" xfId="80" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="標準 6 24" xfId="81" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="標準 6 25" xfId="82" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="標準 6 26" xfId="83" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="標準 6 27" xfId="84" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="標準 6 28" xfId="2" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="標準 6 29" xfId="88" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="標準 6 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="標準 6 4" xfId="61" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="標準 6 5" xfId="62" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="標準 6 6" xfId="63" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="標準 6 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="標準 6 8" xfId="65" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="標準 6 9" xfId="66" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="標準 7" xfId="54" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="標準 7 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="標準 7 6" xfId="93" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="標準 7 7" xfId="94" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="標準 8" xfId="55" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="標準 8 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="標準 9" xfId="57" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="標準 9 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="良い 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2337,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2350,35 +2351,35 @@
       <selection pane="bottomRight" activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>67</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -2473,7 +2474,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -2542,7 +2543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>11407842.699999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>2878367</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>963774.4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>4379777</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>3413352.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>16560014.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>11953983.1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>4662307.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>3421893.8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>262181</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>20586622</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>2655567.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>16539682</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>19755115</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>4906209</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>3757250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>9852279</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>1729223</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>3906837</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>4580563.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>5890192</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>20149303</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>6553486</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>89548.56</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>3360280.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>5704879</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>14153703.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>2678640</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>1596407</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>2227750</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -4885,7 +4886,7 @@
         <v>3248414</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>2781958</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>6702216</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>4160131</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>1441975</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>3052500</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>4922519</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>3168391</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>5211698</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>2624215</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>4970814.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -5737,7 +5738,7 @@
         <v>2628444.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>4161361</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>2500210</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>66</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>266878967.79999998</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -5963,7 +5964,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -5981,7 +5982,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
@@ -6024,48 +6025,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>89</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -6123,7 +6124,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -6160,7 +6161,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -6229,7 +6230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>11789909.199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>2870257</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>1082194</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>4576422.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>3413451.6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>17518677.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -6797,7 +6798,7 @@
         <v>13309505.300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>4716113.8000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>3427684.28</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>275135</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>20652866.579999998</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>2661077.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>16541793</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>19698293</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>4912505</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>3767250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>9854878</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>1763279</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>3921337</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>4561356.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>5902837</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>20173865</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>6639192.4000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>93114.559999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>3370720.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>5709350</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -8217,7 +8218,7 @@
         <v>14301043.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>2708638</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>1621007</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>2226550</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>3257163</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>3420665</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>5306049</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>4160231</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>1475324</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>3114919</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -9069,7 +9070,7 @@
         <v>4948343</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>3168390.9</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>5148560.9000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>2654345</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -9353,7 +9354,7 @@
         <v>4993339.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>2701338.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>4219831</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -9566,7 +9567,7 @@
         <v>2501200</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>88</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>269857093.60000002</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -9650,7 +9651,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -9668,7 +9669,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
@@ -9686,11 +9687,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="A2:A4"/>
@@ -9701,6 +9697,11 @@
     <mergeCell ref="T2:U3"/>
     <mergeCell ref="V2:W3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -9711,7 +9712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9724,35 +9725,35 @@
       <selection pane="bottomRight" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>69</v>
       </c>
@@ -9771,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -9810,7 +9811,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -9847,7 +9848,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -9916,7 +9917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -9987,7 +9988,7 @@
         <v>11502742.699999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>2878367</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -10129,7 +10130,7 @@
         <v>978954.4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -10200,7 +10201,7 @@
         <v>4379777</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -10271,7 +10272,7 @@
         <v>3413392.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -10342,7 +10343,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>17056414.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -10484,7 +10485,7 @@
         <v>11951893.1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>4698507.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>3419229.8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -10697,7 +10698,7 @@
         <v>262181</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -10768,7 +10769,7 @@
         <v>20483145</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -10839,7 +10840,7 @@
         <v>2657587.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>16542491</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -10981,7 +10982,7 @@
         <v>19756105</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -11052,7 +11053,7 @@
         <v>4906209</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>3757250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>9852279</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>1747223</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -11336,7 +11337,7 @@
         <v>3906837</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>4580563.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -11478,7 +11479,7 @@
         <v>5890192</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -11549,7 +11550,7 @@
         <v>20149165</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>6610462</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -11691,7 +11692,7 @@
         <v>89548.56</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -11762,7 +11763,7 @@
         <v>3360280.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -11833,7 +11834,7 @@
         <v>5704880</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>14153703.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -12046,7 +12047,7 @@
         <v>2678640</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>1596407</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -12188,7 +12189,7 @@
         <v>2227750</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -12259,7 +12260,7 @@
         <v>3248414</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -12330,7 +12331,7 @@
         <v>2781958</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -12401,7 +12402,7 @@
         <v>6698348</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -12472,7 +12473,7 @@
         <v>4160131</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -12543,7 +12544,7 @@
         <v>1441975</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -12614,7 +12615,7 @@
         <v>3052500</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -12685,7 +12686,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -12756,7 +12757,7 @@
         <v>4917509</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -12827,7 +12828,7 @@
         <v>3168391</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -12898,7 +12899,7 @@
         <v>5211698</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -12969,7 +12970,7 @@
         <v>2622225</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -13040,7 +13041,7 @@
         <v>4970814.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -13111,7 +13112,7 @@
         <v>2630444.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -13182,7 +13183,7 @@
         <v>4169270</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -13253,7 +13254,7 @@
         <v>2500210</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>66</v>
       </c>
@@ -13324,7 +13325,7 @@
         <v>267493154.79999998</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -13337,7 +13338,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -13355,7 +13356,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
@@ -13398,7 +13399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13411,35 +13412,35 @@
       <selection pane="bottomRight" activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>71</v>
       </c>
@@ -13458,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -13497,7 +13498,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -13534,7 +13535,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -13603,7 +13604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -13674,7 +13675,7 @@
         <v>11502742.699999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>2878367</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -13816,7 +13817,7 @@
         <v>978954.4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -13887,7 +13888,7 @@
         <v>4379777</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -13958,7 +13959,7 @@
         <v>3413392.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -14029,7 +14030,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -14100,7 +14101,7 @@
         <v>17056414.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -14171,7 +14172,7 @@
         <v>11951893.1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -14242,7 +14243,7 @@
         <v>4698507.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -14313,7 +14314,7 @@
         <v>3419229.8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>262181</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -14455,7 +14456,7 @@
         <v>20483145</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -14526,7 +14527,7 @@
         <v>2657587.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -14597,7 +14598,7 @@
         <v>16542491</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -14668,7 +14669,7 @@
         <v>19756105</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -14739,7 +14740,7 @@
         <v>4906209</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -14810,7 +14811,7 @@
         <v>3757250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -14881,7 +14882,7 @@
         <v>9852279</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>1747223</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -15023,7 +15024,7 @@
         <v>3906837</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>4580563.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -15165,7 +15166,7 @@
         <v>5890192</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -15236,7 +15237,7 @@
         <v>20149165</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -15307,7 +15308,7 @@
         <v>6610462</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -15378,7 +15379,7 @@
         <v>89548.56</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>3360280.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -15520,7 +15521,7 @@
         <v>5704880</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -15591,7 +15592,7 @@
         <v>14153703.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -15662,7 +15663,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -15733,7 +15734,7 @@
         <v>2678640</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -15804,7 +15805,7 @@
         <v>1596407</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -15875,7 +15876,7 @@
         <v>2227750</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -15946,7 +15947,7 @@
         <v>3248414</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -16017,7 +16018,7 @@
         <v>2781958</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -16088,7 +16089,7 @@
         <v>6698348</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -16159,7 +16160,7 @@
         <v>4160131</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -16230,7 +16231,7 @@
         <v>1441975</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -16301,7 +16302,7 @@
         <v>3052500</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -16443,7 +16444,7 @@
         <v>4917509</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -16514,7 +16515,7 @@
         <v>3168391</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -16585,7 +16586,7 @@
         <v>5211698</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -16656,7 +16657,7 @@
         <v>2622225</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -16727,7 +16728,7 @@
         <v>4970814.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -16798,7 +16799,7 @@
         <v>2630444.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -16869,7 +16870,7 @@
         <v>4169270</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -16940,7 +16941,7 @@
         <v>2500210</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>66</v>
       </c>
@@ -17011,7 +17012,7 @@
         <v>268286483.39999998</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -17024,7 +17025,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -17042,7 +17043,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
@@ -17085,48 +17086,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>74</v>
       </c>
@@ -17145,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -17184,7 +17185,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -17221,7 +17222,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -17290,7 +17291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -17361,7 +17362,7 @@
         <v>11552107.699999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -17432,7 +17433,7 @@
         <v>2878757</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -17503,7 +17504,7 @@
         <v>1001104</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -17574,7 +17575,7 @@
         <v>4397497</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -17645,7 +17646,7 @@
         <v>3392892.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -17716,7 +17717,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -17787,7 +17788,7 @@
         <v>17057239.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -17858,7 +17859,7 @@
         <v>12598447.1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>4663507.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -18000,7 +18001,7 @@
         <v>3422004.8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -18071,7 +18072,7 @@
         <v>263135</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -18142,7 +18143,7 @@
         <v>20609268</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -18213,7 +18214,7 @@
         <v>2659087.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -18284,7 +18285,7 @@
         <v>16541702</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -18355,7 +18356,7 @@
         <v>19756105</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -18426,7 +18427,7 @@
         <v>4911209</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -18497,7 +18498,7 @@
         <v>3767250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -18568,7 +18569,7 @@
         <v>9852279</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -18639,7 +18640,7 @@
         <v>1748028</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -18710,7 +18711,7 @@
         <v>3906837</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -18781,7 +18782,7 @@
         <v>4580563.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -18852,7 +18853,7 @@
         <v>5890192</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -18923,7 +18924,7 @@
         <v>20149165</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -18994,7 +18995,7 @@
         <v>6610462</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -19065,7 +19066,7 @@
         <v>89548.56</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>3360280.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -19207,7 +19208,7 @@
         <v>5704880</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -19278,7 +19279,7 @@
         <v>14153703.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -19349,7 +19350,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -19420,7 +19421,7 @@
         <v>2678640</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -19491,7 +19492,7 @@
         <v>1596407</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -19562,7 +19563,7 @@
         <v>2227750</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -19633,7 +19634,7 @@
         <v>3253264</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -19704,7 +19705,7 @@
         <v>3380958</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -19775,7 +19776,7 @@
         <v>5823348</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -19846,7 +19847,7 @@
         <v>4160231</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>1442225</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -19988,7 +19989,7 @@
         <v>3113420</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -20059,7 +20060,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -20130,7 +20131,7 @@
         <v>4918609</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -20201,7 +20202,7 @@
         <v>3168391</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -20272,7 +20273,7 @@
         <v>5211698</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -20343,7 +20344,7 @@
         <v>2653645</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -20414,7 +20415,7 @@
         <v>4970814.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -20485,7 +20486,7 @@
         <v>2630444.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -20556,7 +20557,7 @@
         <v>4190612</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -20627,7 +20628,7 @@
         <v>2507560</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>73</v>
       </c>
@@ -20698,7 +20699,7 @@
         <v>268172358.39999998</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -20711,7 +20712,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -20729,7 +20730,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
@@ -20772,7 +20773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -20785,35 +20786,35 @@
       <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>76</v>
       </c>
@@ -20832,7 +20833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -20871,7 +20872,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -20908,7 +20909,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -20977,7 +20978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -21048,7 +21049,7 @@
         <v>11556828.299999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -21119,7 +21120,7 @@
         <v>2870257</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -21190,7 +21191,7 @@
         <v>1003094</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -21261,7 +21262,7 @@
         <v>4398747</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -21332,7 +21333,7 @@
         <v>3413392.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -21403,7 +21404,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -21474,7 +21475,7 @@
         <v>17141717.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -21545,7 +21546,7 @@
         <v>12604628.300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -21616,7 +21617,7 @@
         <v>4665441.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -21687,7 +21688,7 @@
         <v>3422504.28</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -21758,7 +21759,7 @@
         <v>272135</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -21829,7 +21830,7 @@
         <v>20606705.579999998</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -21900,7 +21901,7 @@
         <v>2659087.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -21971,7 +21972,7 @@
         <v>16544369</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -22042,7 +22043,7 @@
         <v>19646105</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -22113,7 +22114,7 @@
         <v>4911209</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -22184,7 +22185,7 @@
         <v>3767250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -22255,7 +22256,7 @@
         <v>9852778</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -22326,7 +22327,7 @@
         <v>1748028</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -22397,7 +22398,7 @@
         <v>3907837</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -22468,7 +22469,7 @@
         <v>4583117.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -22539,7 +22540,7 @@
         <v>5892172</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -22610,7 +22611,7 @@
         <v>20149165</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -22681,7 +22682,7 @@
         <v>6618767</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -22752,7 +22753,7 @@
         <v>92548.56</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -22823,7 +22824,7 @@
         <v>3360280.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -22894,7 +22895,7 @@
         <v>5704880</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -22965,7 +22966,7 @@
         <v>14153703.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -23036,7 +23037,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -23107,7 +23108,7 @@
         <v>2678640</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -23178,7 +23179,7 @@
         <v>1596407</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -23249,7 +23250,7 @@
         <v>2227750</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -23320,7 +23321,7 @@
         <v>3253264</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -23391,7 +23392,7 @@
         <v>3380958</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -23462,7 +23463,7 @@
         <v>5304349</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -23533,7 +23534,7 @@
         <v>4160231</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -23604,7 +23605,7 @@
         <v>1443225</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -23675,7 +23676,7 @@
         <v>3113420</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -23746,7 +23747,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -23817,7 +23818,7 @@
         <v>4918979</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -23888,7 +23889,7 @@
         <v>3168391</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -23959,7 +23960,7 @@
         <v>5211698</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -24030,7 +24031,7 @@
         <v>2653645</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -24101,7 +24102,7 @@
         <v>4954064.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -24172,7 +24173,7 @@
         <v>2630444.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -24243,7 +24244,7 @@
         <v>4224875</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -24314,7 +24315,7 @@
         <v>2510860</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>66</v>
       </c>
@@ -24385,7 +24386,7 @@
         <v>267705038.19999999</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -24398,7 +24399,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -24416,7 +24417,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
@@ -24459,7 +24460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -24472,35 +24473,35 @@
       <selection pane="bottomRight" activeCell="T2" sqref="T2:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>78</v>
       </c>
@@ -24519,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -24558,7 +24559,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -24595,7 +24596,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -24664,7 +24665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -24735,7 +24736,7 @@
         <v>11539679.199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -24806,7 +24807,7 @@
         <v>2863257</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -24877,7 +24878,7 @@
         <v>1003094</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -24948,7 +24949,7 @@
         <v>4443613</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -25019,7 +25020,7 @@
         <v>3413392.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -25090,7 +25091,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -25161,7 +25162,7 @@
         <v>17112837.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -25232,7 +25233,7 @@
         <v>12599578.300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -25303,7 +25304,7 @@
         <v>4662007.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -25374,7 +25375,7 @@
         <v>3424694.28</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -25445,7 +25446,7 @@
         <v>274885</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -25516,7 +25517,7 @@
         <v>20612930.579999998</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -25587,7 +25588,7 @@
         <v>2659087.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -25658,7 +25659,7 @@
         <v>16542234</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -25729,7 +25730,7 @@
         <v>19588175</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -25800,7 +25801,7 @@
         <v>4912505</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -25871,7 +25872,7 @@
         <v>3767250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -25942,7 +25943,7 @@
         <v>9852778</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -26013,7 +26014,7 @@
         <v>1748028</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -26084,7 +26085,7 @@
         <v>3907837</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -26155,7 +26156,7 @@
         <v>4584156.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -26226,7 +26227,7 @@
         <v>5892172</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -26297,7 +26298,7 @@
         <v>20148415</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -26368,7 +26369,7 @@
         <v>6614542.4000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -26439,7 +26440,7 @@
         <v>93114.559999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -26510,7 +26511,7 @@
         <v>3360280.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -26581,7 +26582,7 @@
         <v>5699682</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -26652,7 +26653,7 @@
         <v>14152203.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -26723,7 +26724,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -26794,7 +26795,7 @@
         <v>2708638</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -26865,7 +26866,7 @@
         <v>1588507</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -26936,7 +26937,7 @@
         <v>2227750</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -27007,7 +27008,7 @@
         <v>3258464</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -27078,7 +27079,7 @@
         <v>3380655</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -27149,7 +27150,7 @@
         <v>5287969</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -27220,7 +27221,7 @@
         <v>4160231</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -27291,7 +27292,7 @@
         <v>1462425</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -27362,7 +27363,7 @@
         <v>3114919</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -27433,7 +27434,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -27504,7 +27505,7 @@
         <v>4889014</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -27575,7 +27576,7 @@
         <v>3168391</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -27646,7 +27647,7 @@
         <v>5145330.9000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -27717,7 +27718,7 @@
         <v>2653645</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -27788,7 +27789,7 @@
         <v>4972594.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -27859,7 +27860,7 @@
         <v>2630761.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -27930,7 +27931,7 @@
         <v>4183111</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -28001,7 +28002,7 @@
         <v>2500210</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>79</v>
       </c>
@@ -28072,7 +28073,7 @@
         <v>267532134.39999998</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -28085,7 +28086,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -28103,7 +28104,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
@@ -28146,7 +28147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -28159,35 +28160,35 @@
       <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>81</v>
       </c>
@@ -28206,7 +28207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -28245,7 +28246,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -28282,7 +28283,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -28351,7 +28352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -28422,7 +28423,7 @@
         <v>11633679.199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -28493,7 +28494,7 @@
         <v>2870257</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -28564,7 +28565,7 @@
         <v>1037594</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -28635,7 +28636,7 @@
         <v>4489842.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -28706,7 +28707,7 @@
         <v>3413392.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -28777,7 +28778,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -28848,7 +28849,7 @@
         <v>17135717.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -28919,7 +28920,7 @@
         <v>13285678.300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -28990,7 +28991,7 @@
         <v>4662007.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -29061,7 +29062,7 @@
         <v>3424694.28</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -29132,7 +29133,7 @@
         <v>273635</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -29203,7 +29204,7 @@
         <v>20624918.579999998</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -29274,7 +29275,7 @@
         <v>2661077.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -29345,7 +29346,7 @@
         <v>16542210</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -29416,7 +29417,7 @@
         <v>19591645</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -29487,7 +29488,7 @@
         <v>4912505</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -29558,7 +29559,7 @@
         <v>3767250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -29629,7 +29630,7 @@
         <v>9852778</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -29700,7 +29701,7 @@
         <v>1748028</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -29771,7 +29772,7 @@
         <v>3921337</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -29842,7 +29843,7 @@
         <v>4584156.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -29913,7 +29914,7 @@
         <v>5892172</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -29984,7 +29985,7 @@
         <v>20152765</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -30055,7 +30056,7 @@
         <v>6626692.4000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -30126,7 +30127,7 @@
         <v>93114.559999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -30197,7 +30198,7 @@
         <v>3360280.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -30268,7 +30269,7 @@
         <v>5706870</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -30339,7 +30340,7 @@
         <v>14154835.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -30410,7 +30411,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -30481,7 +30482,7 @@
         <v>2708638</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -30552,7 +30553,7 @@
         <v>1588507</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -30623,7 +30624,7 @@
         <v>2226550</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -30694,7 +30695,7 @@
         <v>3255964</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -30765,7 +30766,7 @@
         <v>3380665</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -30836,7 +30837,7 @@
         <v>5314349</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -30907,7 +30908,7 @@
         <v>4160231</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -30978,7 +30979,7 @@
         <v>1463925</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -31049,7 +31050,7 @@
         <v>3114919</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -31120,7 +31121,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -31191,7 +31192,7 @@
         <v>4929410</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -31262,7 +31263,7 @@
         <v>3168391</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -31333,7 +31334,7 @@
         <v>5146580.9000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -31404,7 +31405,7 @@
         <v>2653645</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -31475,7 +31476,7 @@
         <v>4993339.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -31546,7 +31547,7 @@
         <v>2695561.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -31617,7 +31618,7 @@
         <v>4221311</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -31688,7 +31689,7 @@
         <v>2500210</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>66</v>
       </c>
@@ -31759,7 +31760,7 @@
         <v>268668420.19999999</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -31772,7 +31773,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -31790,7 +31791,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
@@ -31833,7 +31834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -31846,35 +31847,35 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5:W52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>83</v>
       </c>
@@ -31893,7 +31894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -31932,7 +31933,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -31969,7 +31970,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -32038,7 +32039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -32109,7 +32110,7 @@
         <v>11663679.199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -32180,7 +32181,7 @@
         <v>2870257</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -32251,7 +32252,7 @@
         <v>1037594</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -32322,7 +32323,7 @@
         <v>4541422.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -32393,7 +32394,7 @@
         <v>3413392.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -32464,7 +32465,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -32535,7 +32536,7 @@
         <v>16924067.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -32606,7 +32607,7 @@
         <v>13301356.300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -32677,7 +32678,7 @@
         <v>4663985.8000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -32748,7 +32749,7 @@
         <v>3427684.28</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -32819,7 +32820,7 @@
         <v>273635</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -32890,7 +32891,7 @@
         <v>20652346.579999998</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -32961,7 +32962,7 @@
         <v>2661077.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -33032,7 +33033,7 @@
         <v>16542001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -33103,7 +33104,7 @@
         <v>19704205</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -33174,7 +33175,7 @@
         <v>4912505</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -33245,7 +33246,7 @@
         <v>3767250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -33316,7 +33317,7 @@
         <v>9852778</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -33387,7 +33388,7 @@
         <v>1750928</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -33458,7 +33459,7 @@
         <v>3921337</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -33529,7 +33530,7 @@
         <v>4559156.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -33600,7 +33601,7 @@
         <v>5902837</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -33671,7 +33672,7 @@
         <v>20152765</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -33742,7 +33743,7 @@
         <v>6626692.4000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -33813,7 +33814,7 @@
         <v>93114.559999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -33884,7 +33885,7 @@
         <v>3360280.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -33955,7 +33956,7 @@
         <v>5706870</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -34026,7 +34027,7 @@
         <v>14204835.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -34097,7 +34098,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -34168,7 +34169,7 @@
         <v>2708638</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -34239,7 +34240,7 @@
         <v>1588507</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -34310,7 +34311,7 @@
         <v>2226550</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -34381,7 +34382,7 @@
         <v>3255964</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -34452,7 +34453,7 @@
         <v>3420665</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -34523,7 +34524,7 @@
         <v>5304349</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -34594,7 +34595,7 @@
         <v>4160231</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -34665,7 +34666,7 @@
         <v>1464275</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -34736,7 +34737,7 @@
         <v>3114919</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -34807,7 +34808,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -34878,7 +34879,7 @@
         <v>4835810</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -34949,7 +34950,7 @@
         <v>3168391</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -35020,7 +35021,7 @@
         <v>5146580.9000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -35091,7 +35092,7 @@
         <v>2653645</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -35162,7 +35163,7 @@
         <v>4993339.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -35233,7 +35234,7 @@
         <v>2695561.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -35304,7 +35305,7 @@
         <v>4218591</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -35375,7 +35376,7 @@
         <v>2502200</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>66</v>
       </c>
@@ -35446,7 +35447,7 @@
         <v>268673360.29999995</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -35459,7 +35460,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -35477,7 +35478,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
@@ -35520,7 +35521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -35533,35 +35534,35 @@
       <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="6.125" style="1"/>
+    <col min="24" max="16384" width="6.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>85</v>
       </c>
@@ -35580,7 +35581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -35619,7 +35620,7 @@
       </c>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -35656,7 +35657,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -35725,7 +35726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -35796,7 +35797,7 @@
         <v>11789909.199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -35867,7 +35868,7 @@
         <v>2870257</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -35938,7 +35939,7 @@
         <v>1037594</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -36009,7 +36010,7 @@
         <v>4588642.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -36080,7 +36081,7 @@
         <v>3413392.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -36151,7 +36152,7 @@
         <v>1254853</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -36222,7 +36223,7 @@
         <v>17516687.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -36293,7 +36294,7 @@
         <v>13305586.1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -36364,7 +36365,7 @@
         <v>4663985.8000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -36435,7 +36436,7 @@
         <v>3427684</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -36506,7 +36507,7 @@
         <v>273635</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -36577,7 +36578,7 @@
         <v>20652554</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -36648,7 +36649,7 @@
         <v>2661077.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -36719,7 +36720,7 @@
         <v>16542168</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -36790,7 +36791,7 @@
         <v>19696205</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -36861,7 +36862,7 @@
         <v>4912505</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -36932,7 +36933,7 @@
         <v>3767250</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -37003,7 +37004,7 @@
         <v>9854878</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -37074,7 +37075,7 @@
         <v>1763279</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -37145,7 +37146,7 @@
         <v>3921337</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -37216,7 +37217,7 @@
         <v>4561356.9000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
@@ -37287,7 +37288,7 @@
         <v>5902837</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
@@ -37358,7 +37359,7 @@
         <v>20173865</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -37429,7 +37430,7 @@
         <v>6639192.4000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
@@ -37500,7 +37501,7 @@
         <v>83114.559999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -37571,7 +37572,7 @@
         <v>3360730.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="15" t="s">
         <v>40</v>
       </c>
@@ -37642,7 +37643,7 @@
         <v>5706870</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -37713,7 +37714,7 @@
         <v>14209734.91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
@@ -37784,7 +37785,7 @@
         <v>1819922</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -37855,7 +37856,7 @@
         <v>2708638</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -37926,7 +37927,7 @@
         <v>1588507</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -37997,7 +37998,7 @@
         <v>2226550</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -38068,7 +38069,7 @@
         <v>3257163</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -38139,7 +38140,7 @@
         <v>3420665</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -38210,7 +38211,7 @@
         <v>5304349</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
@@ -38281,7 +38282,7 @@
         <v>4160231</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -38352,7 +38353,7 @@
         <v>1465324</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
@@ -38423,7 +38424,7 @@
         <v>3114919</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
@@ -38494,7 +38495,7 @@
         <v>1652312</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -38565,7 +38566,7 @@
         <v>4947810</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -38636,7 +38637,7 @@
         <v>3168391</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="15" t="s">
         <v>55</v>
       </c>
@@ -38707,7 +38708,7 @@
         <v>5146580.9000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
@@ -38778,7 +38779,7 @@
         <v>2653645</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
@@ -38849,7 +38850,7 @@
         <v>4993339.5999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -38920,7 +38921,7 @@
         <v>2697704.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23">
       <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
@@ -38991,7 +38992,7 @@
         <v>4218591</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>60</v>
       </c>
@@ -39062,7 +39063,7 @@
         <v>2502200</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>87</v>
       </c>
@@ -39133,7 +39134,7 @@
         <v>269585785.29999995</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -39146,7 +39147,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
@@ -39164,7 +39165,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="11"/>
       <c r="B55" s="31" t="s">
         <v>63</v>
